--- a/лаб 3-4-5/лаб 3-4-5.xlsx
+++ b/лаб 3-4-5/лаб 3-4-5.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лаб3" sheetId="1" r:id="rId1"/>
+    <sheet name="Лаб4" sheetId="2" r:id="rId2"/>
+    <sheet name="Лаб5" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>ЛАБОРАТОРНАЯ РАБОТА № 3 ИССЛЕДОВАНИЕ ТЕХНИЧЕСКИХ АСПЕКТОВ ПРОЕКТИРОВАНИЯ В СИСТЕМНОЙ ИНЖЕНЕРИИ</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Интернет магазин</t>
   </si>
   <si>
-    <t>1 Расчѐтные выражения для выбора средств ввода и регистрации</t>
-  </si>
-  <si>
     <t>Nобщ</t>
   </si>
   <si>
@@ -554,18 +551,199 @@
   </si>
   <si>
     <t>Nобщ = np*Nj*KH</t>
+  </si>
+  <si>
+    <t>1 Расчѐтные выражения для выбора средств ввода и регистрации (кол-во ПК)</t>
+  </si>
+  <si>
+    <t>2 Расчѐтные выражения для выбора средств передачи (интернет)</t>
+  </si>
+  <si>
+    <t>Nкан = d*ni/ri+Nрез</t>
+  </si>
+  <si>
+    <t>d - кол-во датчиков</t>
+  </si>
+  <si>
+    <t>ni – количество датчиков i-го вида</t>
+  </si>
+  <si>
+    <t>ri – количество датчиков i-го вида присоединяемых к одному каналу</t>
+  </si>
+  <si>
+    <t>NРЕЗ – количество резервных каналов, на перспективу развития системы</t>
+  </si>
+  <si>
+    <t>Nкан - необходимое кол-во каналов свящи</t>
+  </si>
+  <si>
+    <t>Nкан</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>Nрез</t>
+  </si>
+  <si>
+    <t>Wп - Суммарная разрядность</t>
+  </si>
+  <si>
+    <t>Wп = Nкан*ri*Wi+Wрез</t>
+  </si>
+  <si>
+    <t>ЛАБОРАТОРНАЯ РАБОТА № 4 ИССЛЕДОВАНИЕ АСПЕКТОВ КОЛИЧЕСТВЕННОГО АНАЛИЗА КОМПЛЕКСА ТЕХНИЧЕСКИХ СРЕДСТВ В СИСТЕМНОЙ ИНЖЕНЕРИИ</t>
+  </si>
+  <si>
+    <t>Ц = ТГ – ТН</t>
+  </si>
+  <si>
+    <t>промежуток времени от начала поступления данных на обработку ТН до срока готовности задачи ТГ</t>
+  </si>
+  <si>
+    <t>tP – процессорное время(processing), затрачиваемое на счет непосредственно</t>
+  </si>
+  <si>
+    <t>tE – время, затрачиваемое на обмен в процессе счета с внешними (external) устройствами</t>
+  </si>
+  <si>
+    <t>tO –формирование и вывод (output) результатов работы</t>
+  </si>
+  <si>
+    <t>t = tI + tP + tE + tO</t>
+  </si>
+  <si>
+    <t>ТН - начало поступления данных на обработку</t>
+  </si>
+  <si>
+    <t>ТГ - срока готовности задачи</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ц</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - цикл работ обработки информации</t>
+    </r>
+  </si>
+  <si>
+    <t>tl – ввод (загрузка, input) программы и данных</t>
+  </si>
+  <si>
+    <t>MI – объѐм массива вводимых данных</t>
+  </si>
+  <si>
+    <t>vI – быстродействие устройства</t>
+  </si>
+  <si>
+    <t>tl = Ml/vl</t>
+  </si>
+  <si>
+    <t>tp = j*tj*hj</t>
+  </si>
+  <si>
+    <t>t - время решения задачи</t>
+  </si>
+  <si>
+    <t>Нам известен алгоритм решения задачи, по этому расчѐты целесообразно вести по формуле</t>
+  </si>
+  <si>
+    <t>hj – количество j-х операций применѐнных в реализации алгоритма</t>
+  </si>
+  <si>
+    <t>te = krw/vrw*fj*vj</t>
+  </si>
+  <si>
+    <t>krw – коэффициент, учитывающий контрольные операции, при проведении операций считывания или записи (например, для контрольного суммирования krw = 2)</t>
+  </si>
+  <si>
+    <t>vrw – скорость чтения или записи</t>
+  </si>
+  <si>
+    <t>fj – количество обращений к внешним устройствам</t>
+  </si>
+  <si>
+    <t>Vj – объѐм считываемой или записываемой порции данных</t>
+  </si>
+  <si>
+    <t>to = Mo/vo = M1*k10/vo</t>
+  </si>
+  <si>
+    <t>Время вывода результата определяться быстродействием конечного устройства как отношение</t>
+  </si>
+  <si>
+    <t>MO – объѐм массива выводимых данных</t>
+  </si>
+  <si>
+    <t>vO – быстродействие устройств</t>
+  </si>
+  <si>
+    <t>kIO – коэффициент соотношения выводимой информации по отношению к объѐму входной</t>
+  </si>
+  <si>
+    <t>Общее время решения последовательности задач составит</t>
+  </si>
+  <si>
+    <t>tсум = cev*ti</t>
+  </si>
+  <si>
+    <t>ti определяется (2) для каждой задачи</t>
+  </si>
+  <si>
+    <t>Отсюда потребность в вычислительных устройствах составляет</t>
+  </si>
+  <si>
+    <t>N &gt;= Ц/tсум</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,17 +792,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -926,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +1128,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,39 +1136,39 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -1007,28 +1186,28 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,27 +1224,27 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,19 +1253,19 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,12 +1305,12 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,76 +1318,76 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1245,6 +1424,89 @@
       <c r="C56" s="5">
         <f>D54/E54+F54/G54+H54/I54+J54</f>
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <f>B70*C70/D70+E70</f>
+        <v>2</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1255,13 +1517,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1269,7 +1708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/лаб 3-4-5/лаб 3-4-5.xlsx
+++ b/лаб 3-4-5/лаб 3-4-5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>ЛАБОРАТОРНАЯ РАБОТА № 3 ИССЛЕДОВАНИЕ ТЕХНИЧЕСКИХ АСПЕКТОВ ПРОЕКТИРОВАНИЯ В СИСТЕМНОЙ ИНЖЕНЕРИИ</t>
   </si>
@@ -661,18 +661,9 @@
     <t>tl = Ml/vl</t>
   </si>
   <si>
-    <t>tp = j*tj*hj</t>
-  </si>
-  <si>
     <t>t - время решения задачи</t>
   </si>
   <si>
-    <t>Нам известен алгоритм решения задачи, по этому расчѐты целесообразно вести по формуле</t>
-  </si>
-  <si>
-    <t>hj – количество j-х операций применѐнных в реализации алгоритма</t>
-  </si>
-  <si>
     <t>te = krw/vrw*fj*vj</t>
   </si>
   <si>
@@ -706,9 +697,6 @@
     <t>Общее время решения последовательности задач составит</t>
   </si>
   <si>
-    <t>tсум = cev*ti</t>
-  </si>
-  <si>
     <t>ti определяется (2) для каждой задачи</t>
   </si>
   <si>
@@ -716,6 +704,126 @@
   </si>
   <si>
     <t>N &gt;= Ц/tсум</t>
+  </si>
+  <si>
+    <t>Ц</t>
+  </si>
+  <si>
+    <t>ТГ</t>
+  </si>
+  <si>
+    <t>ТН</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>Ml</t>
+  </si>
+  <si>
+    <t>vl</t>
+  </si>
+  <si>
+    <t>Процессорное время может рассчитываться</t>
+  </si>
+  <si>
+    <t>tp = top * kст *Ml</t>
+  </si>
+  <si>
+    <t>top = tj * qj</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>tj</t>
+  </si>
+  <si>
+    <t>qj</t>
+  </si>
+  <si>
+    <t>kст</t>
+  </si>
+  <si>
+    <t>top - среднее время выполнения операции</t>
+  </si>
+  <si>
+    <t>kCT – коэффициент соотношения операций, показывающий, какое количество операций приходится на байт введѐнной информации</t>
+  </si>
+  <si>
+    <t>tj – время выполнения j-й операции</t>
+  </si>
+  <si>
+    <t>qj – удельный вес j-й операции</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">te </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Затраты времени на обмен с внешними устройствами</t>
+    </r>
+  </si>
+  <si>
+    <t>krw</t>
+  </si>
+  <si>
+    <t>vrw</t>
+  </si>
+  <si>
+    <t>fj</t>
+  </si>
+  <si>
+    <t>vj</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>Klo</t>
+  </si>
+  <si>
+    <t>tсум = сумti</t>
+  </si>
+  <si>
+    <t>Контрольные вопросы</t>
+  </si>
+  <si>
+    <t>1. Что такое цикл работ обработки информации?</t>
+  </si>
+  <si>
+    <t>промежуток времени от начала поступления данных на обработку - до срока готовности задачи</t>
+  </si>
+  <si>
+    <t>2. Для чего задачи, решаемые на ЭВМ, разбиваются на типовые группы</t>
   </si>
 </sst>
 </file>
@@ -772,12 +880,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -792,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,6 +924,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1517,185 +1649,572 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>B10-C10</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>B22+C22+D22+E22</f>
+        <v>3070</v>
+      </c>
+      <c r="B22" s="5">
+        <f>A31</f>
+        <v>2.4</v>
+      </c>
+      <c r="C22" s="5">
+        <f>A43</f>
+        <v>3024</v>
+      </c>
+      <c r="D22" s="5">
+        <f>A64</f>
+        <v>40</v>
+      </c>
+      <c r="E22" s="5">
+        <f>A77</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f>B31/C31</f>
+        <v>2.4</v>
+      </c>
+      <c r="B31" s="5">
+        <v>120</v>
+      </c>
+      <c r="C31" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f>B43*C43*D43</f>
+        <v>3024</v>
+      </c>
+      <c r="B43" s="5">
+        <f>A51</f>
+        <v>0.36</v>
+      </c>
+      <c r="C43" s="5">
+        <v>70</v>
+      </c>
+      <c r="D43" s="5">
+        <f>B31</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <f>B51*C51</f>
+        <v>0.36</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <f>B64/C64*D64*E64</f>
+        <v>40</v>
+      </c>
+      <c r="B64" s="8">
+        <v>2</v>
+      </c>
+      <c r="C64" s="8">
+        <v>5</v>
+      </c>
+      <c r="D64" s="8">
+        <v>2</v>
+      </c>
+      <c r="E64" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <f>D76*E76/C76</f>
+        <v>1.2</v>
+      </c>
+      <c r="B76" s="8">
+        <v>180</v>
+      </c>
+      <c r="C76" s="8">
+        <f>C31</f>
+        <v>50</v>
+      </c>
+      <c r="D76" s="8">
+        <f>D43</f>
+        <v>120</v>
+      </c>
+      <c r="E76" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <f>B76/C76</f>
+        <v>3.6</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>92</v>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/лаб 3-4-5/лаб 3-4-5.xlsx
+++ b/лаб 3-4-5/лаб 3-4-5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лаб3" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="162">
   <si>
     <t>ЛАБОРАТОРНАЯ РАБОТА № 3 ИССЛЕДОВАНИЕ ТЕХНИЧЕСКИХ АСПЕКТОВ ПРОЕКТИРОВАНИЯ В СИСТЕМНОЙ ИНЖЕНЕРИИ</t>
   </si>
@@ -824,18 +824,293 @@
   </si>
   <si>
     <t>2. Для чего задачи, решаемые на ЭВМ, разбиваются на типовые группы</t>
+  </si>
+  <si>
+    <t>ЛАБОРАТОРНАЯ РАБОТА № 5 ИССЛЕДОВАНИЕ ЭКОНОМИЧЕСКИХ АСПЕКТОВ АНАЛИЗА КОМПЛЕКСА ТЕХНИЧЕСКИХ СРЕД</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– себестоимость, полученная суммированием ряда статей</t>
+    </r>
+  </si>
+  <si>
+    <t>Второй подход в качестве калькуляционной единицы использует единицу вводимой информации.</t>
+  </si>
+  <si>
+    <t>Себестоимость обработки единицы вводимой информации будет равна</t>
+  </si>
+  <si>
+    <t>Проведение экономического анализа комплекса технических средств</t>
+  </si>
+  <si>
+    <t>Sm = C/M</t>
+  </si>
+  <si>
+    <t>такие как - прямые расходы по заработной плате; административноуправленческие и общехозяйственные расходы; общепроизводственные расходы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– объѐм перерабатываемой информации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - среднее время обработки единицы информации</t>
+    </r>
+  </si>
+  <si>
+    <t>NI – количество разновидностей способов ввода информации</t>
+  </si>
+  <si>
+    <t>tI – время ввода единицы информации</t>
+  </si>
+  <si>
+    <t>qI – удельный вес разновидности ввода</t>
+  </si>
+  <si>
+    <t>NP – количество групп сложности задач</t>
+  </si>
+  <si>
+    <t>tP – среднее время выполнения операции</t>
+  </si>
+  <si>
+    <t>qP – удельный вес задач соответствующей сложности</t>
+  </si>
+  <si>
+    <t>KP – коэффициент соотношения операций</t>
+  </si>
+  <si>
+    <t>NO – количество разновидностей способов вывода информации</t>
+  </si>
+  <si>
+    <t>tO – время вывода единицы информации</t>
+  </si>
+  <si>
+    <t>qO – удельный вес вида выводимой информации</t>
+  </si>
+  <si>
+    <t>KO – коэффициент соотношения вывода</t>
+  </si>
+  <si>
+    <t>tI</t>
+  </si>
+  <si>
+    <t>qI</t>
+  </si>
+  <si>
+    <t>tP</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>qP</t>
+  </si>
+  <si>
+    <t>tO</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>qo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FДН</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – дневной (суточный) фонд работы системы, обычно задаѐтся в часах</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – коэффициент использования вычислительной системы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>КДОП</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – коэффициент дополнительного времени</t>
+    </r>
+  </si>
+  <si>
+    <t>ВМ</t>
+  </si>
+  <si>
+    <t>Мп</t>
+  </si>
+  <si>
+    <t>Fдн</t>
+  </si>
+  <si>
+    <t>Kи</t>
+  </si>
+  <si>
+    <t>Кдоп</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ВМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - некоторый отрезок (период) времени ВМ функционирования системы</t>
+    </r>
+  </si>
+  <si>
+    <t>Sm</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Sm - Себестоимость обработки единицы вводимой информации будет равна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,7 +1155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +1174,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -912,30 +1199,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1651,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
@@ -2225,14 +2516,301 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>B17/C17</f>
+        <v>3003.2539682539682</v>
+      </c>
+      <c r="B17">
+        <v>1580</v>
+      </c>
+      <c r="C17">
+        <f>A27</f>
+        <v>0.52609603340292277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <f>B27*C27*D27/E27*F27</f>
+        <v>0.52609603340292277</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>0.7</v>
+      </c>
+      <c r="E27">
+        <f>A46</f>
+        <v>47.9</v>
+      </c>
+      <c r="F27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>B46*C46+D46*E46*F46+G46*H46*I46</f>
+        <v>47.9</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>1.5</v>
+      </c>
+      <c r="E46">
+        <v>0.3</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>1.8</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>